--- a/設計書類_レビュー前/画面遷移図part2.xlsx
+++ b/設計書類_レビュー前/画面遷移図part2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\システム開発演習\画面遷移図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="part2" sheetId="1" r:id="rId1"/>
@@ -895,24 +895,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -994,6 +976,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1015,6 +1015,60 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2762250" y="2449286"/>
+          <a:ext cx="1129393" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2310,15 +2364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>77988</xdr:rowOff>
+      <xdr:colOff>39007</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>191407</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2327,8 +2381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2951480" y="2463048"/>
-          <a:ext cx="518160" cy="756402"/>
+          <a:off x="3304721" y="2840237"/>
+          <a:ext cx="560615" cy="847298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3767,15 +3821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>86754</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>100361</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>88703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>145421</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111563</xdr:rowOff>
+      <xdr:colOff>159028</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3784,8 +3838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2829954" y="2595683"/>
-          <a:ext cx="607307" cy="144780"/>
+          <a:off x="3161968" y="3327203"/>
+          <a:ext cx="670989" cy="156225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5898,70 +5952,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>118530</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>93134</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88238</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="フリーフォーム 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2091266" y="2565397"/>
-          <a:ext cx="609601" cy="584203"/>
+          <a:off x="299080" y="3286125"/>
+          <a:ext cx="891545" cy="6398551"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 891545 w 891545"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 6398551"/>
+            <a:gd name="connsiteX1" fmla="*/ 177170 w 891545"/>
+            <a:gd name="connsiteY1" fmla="*/ 3476625 h 6398551"/>
+            <a:gd name="connsiteX2" fmla="*/ 10482 w 891545"/>
+            <a:gd name="connsiteY2" fmla="*/ 5072062 h 6398551"/>
+            <a:gd name="connsiteX3" fmla="*/ 391482 w 891545"/>
+            <a:gd name="connsiteY3" fmla="*/ 6238875 h 6398551"/>
+            <a:gd name="connsiteX4" fmla="*/ 462920 w 891545"/>
+            <a:gd name="connsiteY4" fmla="*/ 6357937 h 6398551"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="891545" h="6398551">
+              <a:moveTo>
+                <a:pt x="891545" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="607779" y="1315640"/>
+                <a:pt x="324014" y="2631281"/>
+                <a:pt x="177170" y="3476625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="30326" y="4321969"/>
+                <a:pt x="-25237" y="4611687"/>
+                <a:pt x="10482" y="5072062"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="46201" y="5532437"/>
+                <a:pt x="316076" y="6024563"/>
+                <a:pt x="391482" y="6238875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="466888" y="6453187"/>
+                <a:pt x="464904" y="6405562"/>
+                <a:pt x="462920" y="6357937"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
       </xdr:spPr>
-    </xdr:cxnSp>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>67732</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>165099</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83079</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5970,8 +6080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2116665" y="2675466"/>
-          <a:ext cx="656167" cy="364067"/>
+          <a:off x="557212" y="4338107"/>
+          <a:ext cx="668867" cy="423334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6019,6 +6129,118 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157792</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>143802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="770113" y="9396659"/>
+          <a:ext cx="195995" cy="318841"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4239</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3007179" y="2816679"/>
+          <a:ext cx="670989" cy="149679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>メニューボタン</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6292,142 +6514,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="100" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="112" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="112" t="s">
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="109"/>
     </row>
     <row r="2" spans="1:73" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="83" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="83" t="s">
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="111"/>
+      <c r="AM2" s="111"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="86"/>
+      <c r="AQ2" s="110"/>
+      <c r="AR2" s="110"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="112"/>
+      <c r="BA2" s="112"/>
+      <c r="BB2" s="112"/>
+      <c r="BC2" s="113"/>
     </row>
-    <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:73" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
@@ -6808,7 +7030,7 @@
       <c r="BT9" s="7"/>
       <c r="BU9" s="8"/>
     </row>
-    <row r="10" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6883,7 +7105,7 @@
       <c r="BT10" s="7"/>
       <c r="BU10" s="8"/>
     </row>
-    <row r="11" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -6960,7 +7182,7 @@
       <c r="BT11" s="7"/>
       <c r="BU11" s="8"/>
     </row>
-    <row r="12" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7043,7 +7265,7 @@
       <c r="BT12" s="7"/>
       <c r="BU12" s="8"/>
     </row>
-    <row r="13" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7201,7 +7423,7 @@
       <c r="BT14" s="7"/>
       <c r="BU14" s="8"/>
     </row>
-    <row r="15" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7278,7 +7500,7 @@
       <c r="BT15" s="7"/>
       <c r="BU15" s="8"/>
     </row>
-    <row r="16" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -7807,7 +8029,7 @@
       <c r="BT22" s="7"/>
       <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8014,7 +8236,7 @@
       <c r="BT25" s="7"/>
       <c r="BU25" s="8"/>
     </row>
-    <row r="26" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8083,7 +8305,7 @@
       <c r="BT26" s="7"/>
       <c r="BU26" s="8"/>
     </row>
-    <row r="27" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8306,7 +8528,7 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="8"/>
     </row>
-    <row r="30" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8423,17 +8645,17 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="7"/>
       <c r="BA31" s="7"/>
-      <c r="BB31" s="87" t="s">
+      <c r="BB31" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="BC31" s="88"/>
-      <c r="BD31" s="88"/>
-      <c r="BE31" s="88"/>
-      <c r="BF31" s="88"/>
-      <c r="BG31" s="88"/>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="88"/>
-      <c r="BJ31" s="89"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="82"/>
+      <c r="BH31" s="82"/>
+      <c r="BI31" s="82"/>
+      <c r="BJ31" s="83"/>
       <c r="BK31" s="8"/>
       <c r="BL31" s="7"/>
       <c r="BM31" s="7"/>
@@ -8500,15 +8722,15 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
-      <c r="BB32" s="90"/>
-      <c r="BC32" s="91"/>
-      <c r="BD32" s="91"/>
-      <c r="BE32" s="91"/>
-      <c r="BF32" s="91"/>
-      <c r="BG32" s="91"/>
-      <c r="BH32" s="91"/>
-      <c r="BI32" s="91"/>
-      <c r="BJ32" s="92"/>
+      <c r="BB32" s="84"/>
+      <c r="BC32" s="85"/>
+      <c r="BD32" s="85"/>
+      <c r="BE32" s="85"/>
+      <c r="BF32" s="85"/>
+      <c r="BG32" s="85"/>
+      <c r="BH32" s="85"/>
+      <c r="BI32" s="85"/>
+      <c r="BJ32" s="86"/>
       <c r="BK32" s="8"/>
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
@@ -8521,7 +8743,7 @@
       <c r="BT32" s="7"/>
       <c r="BU32" s="8"/>
     </row>
-    <row r="33" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8575,15 +8797,15 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="7"/>
       <c r="BA33" s="7"/>
-      <c r="BB33" s="93"/>
-      <c r="BC33" s="94"/>
-      <c r="BD33" s="94"/>
-      <c r="BE33" s="94"/>
-      <c r="BF33" s="94"/>
-      <c r="BG33" s="94"/>
-      <c r="BH33" s="94"/>
-      <c r="BI33" s="94"/>
-      <c r="BJ33" s="95"/>
+      <c r="BB33" s="87"/>
+      <c r="BC33" s="88"/>
+      <c r="BD33" s="88"/>
+      <c r="BE33" s="88"/>
+      <c r="BF33" s="88"/>
+      <c r="BG33" s="88"/>
+      <c r="BH33" s="88"/>
+      <c r="BI33" s="88"/>
+      <c r="BJ33" s="89"/>
       <c r="BK33" s="8"/>
       <c r="BL33" s="7"/>
       <c r="BM33" s="7"/>
@@ -8596,7 +8818,7 @@
       <c r="BT33" s="7"/>
       <c r="BU33" s="8"/>
     </row>
-    <row r="34" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -8780,7 +9002,7 @@
       <c r="BT36" s="7"/>
       <c r="BU36" s="8"/>
     </row>
-    <row r="37" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -8840,7 +9062,7 @@
       <c r="BT37" s="7"/>
       <c r="BU37" s="8"/>
     </row>
-    <row r="38" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -9183,7 +9405,7 @@
       <c r="BT43" s="7"/>
       <c r="BU43" s="8"/>
     </row>
-    <row r="44" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -9243,7 +9465,7 @@
       <c r="BT44" s="7"/>
       <c r="BU44" s="8"/>
     </row>
-    <row r="45" spans="1:74" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:74" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -9470,7 +9692,7 @@
       <c r="BU47" s="7"/>
       <c r="BV47" s="7"/>
     </row>
-    <row r="48" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -9598,7 +9820,7 @@
       <c r="BC50" s="7"/>
       <c r="BD50" s="7"/>
     </row>
-    <row r="51" spans="1:56" ht="12.6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:56" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9836,7 +10058,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
@@ -9886,7 +10108,7 @@
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
     </row>
-    <row r="67" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
@@ -9897,7 +10119,7 @@
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
     </row>
-    <row r="68" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E68" s="7"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13" t="s">
@@ -9979,7 +10201,7 @@
       <c r="AQ70" s="65"/>
       <c r="AS70" s="7"/>
     </row>
-    <row r="71" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E71" s="7"/>
       <c r="F71" s="69"/>
       <c r="G71" s="70"/>
@@ -10155,7 +10377,7 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
     </row>
-    <row r="79" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F79" s="38"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
@@ -10183,8 +10405,8 @@
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
     </row>
-    <row r="87" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U88" s="12"/>
       <c r="V88" s="13" t="s">
         <v>34</v>
@@ -10230,7 +10452,7 @@
       <c r="AO90" s="61"/>
       <c r="AP90" s="61"/>
     </row>
-    <row r="91" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U91" s="69"/>
       <c r="V91" s="70"/>
       <c r="W91" s="70"/>
@@ -10433,7 +10655,7 @@
       <c r="AO98" s="61"/>
       <c r="AP98" s="61"/>
     </row>
-    <row r="99" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>

--- a/設計書類_レビュー前/画面遷移図part2.xlsx
+++ b/設計書類_レビュー前/画面遷移図part2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\システム開発演習\画面遷移図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="part2" sheetId="1" r:id="rId1"/>
@@ -140,23 +140,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>password.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>管理者画面</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>このモーダル画面は、メニュー画面で表示される使用です。ですのでこの画面は遷移していません。</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -190,14 +173,6 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>rohuin.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>era.php</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -236,10 +211,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>hojyu.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>管理者画面</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -260,10 +231,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>kannri2.php</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>商品管理画面</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンカンリ</t>
@@ -271,6 +238,42 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager_login.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>inventory.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>menu_manage.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>error.php</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>index.php</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1015,60 +1018,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2762250" y="2449286"/>
-          <a:ext cx="1129393" cy="1197429"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2364,15 +2313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>39007</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23558</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>191407</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2381,8 +2330,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3304721" y="2840237"/>
-          <a:ext cx="560615" cy="847298"/>
+          <a:off x="2951480" y="2463048"/>
+          <a:ext cx="518160" cy="756402"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3821,15 +3770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>100361</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>86754</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>159028</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>145421</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3838,8 +3787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3161968" y="3327203"/>
-          <a:ext cx="670989" cy="156225"/>
+          <a:off x="2829954" y="2595683"/>
+          <a:ext cx="607307" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4828,15 +4777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>40409</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>40985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>108526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4845,8 +4794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1109980" y="9005570"/>
-          <a:ext cx="713740" cy="186690"/>
+          <a:off x="1121064" y="9136494"/>
+          <a:ext cx="705427" cy="192232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4900,13 +4849,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>55072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>170180</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4915,8 +4864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1102360" y="9277350"/>
-          <a:ext cx="713740" cy="179070"/>
+          <a:off x="1085735" y="9399963"/>
+          <a:ext cx="705427" cy="184612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5048,14 +4997,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>15587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5064,8 +5013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1120140" y="9532620"/>
-          <a:ext cx="713740" cy="179070"/>
+          <a:off x="1103515" y="9677401"/>
+          <a:ext cx="702656" cy="181841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5369,15 +5318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>138545</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>104602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
+      <xdr:colOff>89015</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>104602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5386,8 +5335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3078480" y="8633460"/>
-          <a:ext cx="499110" cy="121920"/>
+          <a:off x="3020290" y="8819111"/>
+          <a:ext cx="490798" cy="124691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5952,126 +5901,70 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>108580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>88238</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="フリーフォーム 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="299080" y="3286125"/>
-          <a:ext cx="891545" cy="6398551"/>
+          <a:off x="2091266" y="2565397"/>
+          <a:ext cx="609601" cy="584203"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 891545 w 891545"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 6398551"/>
-            <a:gd name="connsiteX1" fmla="*/ 177170 w 891545"/>
-            <a:gd name="connsiteY1" fmla="*/ 3476625 h 6398551"/>
-            <a:gd name="connsiteX2" fmla="*/ 10482 w 891545"/>
-            <a:gd name="connsiteY2" fmla="*/ 5072062 h 6398551"/>
-            <a:gd name="connsiteX3" fmla="*/ 391482 w 891545"/>
-            <a:gd name="connsiteY3" fmla="*/ 6238875 h 6398551"/>
-            <a:gd name="connsiteX4" fmla="*/ 462920 w 891545"/>
-            <a:gd name="connsiteY4" fmla="*/ 6357937 h 6398551"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="891545" h="6398551">
-              <a:moveTo>
-                <a:pt x="891545" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="607779" y="1315640"/>
-                <a:pt x="324014" y="2631281"/>
-                <a:pt x="177170" y="3476625"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="30326" y="4321969"/>
-                <a:pt x="-25237" y="4611687"/>
-                <a:pt x="10482" y="5072062"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="46201" y="5532437"/>
-                <a:pt x="316076" y="6024563"/>
-                <a:pt x="391482" y="6238875"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="466888" y="6453187"/>
-                <a:pt x="464904" y="6405562"/>
-                <a:pt x="462920" y="6357937"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51857</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67732</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>83079</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70378</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165099</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6080,8 +5973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="557212" y="4338107"/>
-          <a:ext cx="668867" cy="423334"/>
+          <a:off x="2116665" y="2675466"/>
+          <a:ext cx="656167" cy="364067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6136,73 +6029,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>157792</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>143802</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="770113" y="9396659"/>
-          <a:ext cx="195995" cy="318841"/>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="177800" y="2370667"/>
+          <a:ext cx="16933" cy="6358466"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>4239</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84745</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3007179" y="2816679"/>
-          <a:ext cx="670989" cy="149679"/>
+          <a:off x="942109" y="9892145"/>
+          <a:ext cx="403400" cy="162791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6233,13 +6133,195 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>メニューボタン</a:t>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3215</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="183324" y="2484154"/>
+          <a:ext cx="689512" cy="2737"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13856</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145473</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="193965" y="9088582"/>
+          <a:ext cx="671944" cy="6927"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4150978"/>
+          <a:ext cx="1311565" cy="434877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>戻るボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6514,13 +6596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6649,7 +6731,7 @@
       <c r="BB2" s="112"/>
       <c r="BC2" s="113"/>
     </row>
-    <row r="3" spans="1:73" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:73" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
@@ -7030,7 +7112,7 @@
       <c r="BT9" s="7"/>
       <c r="BU9" s="8"/>
     </row>
-    <row r="10" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7105,7 +7187,7 @@
       <c r="BT10" s="7"/>
       <c r="BU10" s="8"/>
     </row>
-    <row r="11" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -7182,7 +7264,7 @@
       <c r="BT11" s="7"/>
       <c r="BU11" s="8"/>
     </row>
-    <row r="12" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -7265,7 +7347,7 @@
       <c r="BT12" s="7"/>
       <c r="BU12" s="8"/>
     </row>
-    <row r="13" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7423,7 +7505,7 @@
       <c r="BT14" s="7"/>
       <c r="BU14" s="8"/>
     </row>
-    <row r="15" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7500,7 +7582,7 @@
       <c r="BT15" s="7"/>
       <c r="BU15" s="8"/>
     </row>
-    <row r="16" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8029,7 +8111,7 @@
       <c r="BT22" s="7"/>
       <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8236,7 +8318,7 @@
       <c r="BT25" s="7"/>
       <c r="BU25" s="8"/>
     </row>
-    <row r="26" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8305,7 +8387,7 @@
       <c r="BT26" s="7"/>
       <c r="BU26" s="8"/>
     </row>
-    <row r="27" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8320,7 +8402,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -8466,7 +8548,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="47"/>
       <c r="N29" s="48" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
@@ -8528,7 +8610,7 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="8"/>
     </row>
-    <row r="30" spans="1:73" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8646,7 +8728,7 @@
       <c r="AZ31" s="7"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC31" s="82"/>
       <c r="BD31" s="82"/>
@@ -8743,7 +8825,7 @@
       <c r="BT32" s="7"/>
       <c r="BU32" s="8"/>
     </row>
-    <row r="33" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8818,7 +8900,7 @@
       <c r="BT33" s="7"/>
       <c r="BU33" s="8"/>
     </row>
-    <row r="34" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -8850,7 +8932,7 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="7"/>
       <c r="AT34" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU34" s="55"/>
       <c r="AV34" s="55"/>
@@ -8973,7 +9055,7 @@
       <c r="AS36" s="7"/>
       <c r="AT36" s="24"/>
       <c r="AU36" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV36" s="25"/>
       <c r="AW36" s="25"/>
@@ -9002,7 +9084,7 @@
       <c r="BT36" s="7"/>
       <c r="BU36" s="8"/>
     </row>
-    <row r="37" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -9062,7 +9144,7 @@
       <c r="BT37" s="7"/>
       <c r="BU37" s="8"/>
     </row>
-    <row r="38" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -9405,7 +9487,7 @@
       <c r="BT43" s="7"/>
       <c r="BU43" s="8"/>
     </row>
-    <row r="44" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -9465,7 +9547,7 @@
       <c r="BT44" s="7"/>
       <c r="BU44" s="8"/>
     </row>
-    <row r="45" spans="1:74" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:74" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -9474,7 +9556,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="56"/>
       <c r="H45" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -9484,7 +9566,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="12"/>
       <c r="S45" s="13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -9496,7 +9578,7 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
@@ -9623,7 +9705,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="24"/>
       <c r="G47" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
@@ -9632,7 +9714,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="75"/>
       <c r="S47" s="76" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
@@ -9644,7 +9726,7 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="24"/>
       <c r="AC47" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AD47" s="25"/>
       <c r="AE47" s="25"/>
@@ -9692,7 +9774,7 @@
       <c r="BU47" s="7"/>
       <c r="BV47" s="7"/>
     </row>
-    <row r="48" spans="1:74" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:74" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -9820,7 +9902,7 @@
       <c r="BC50" s="7"/>
       <c r="BD50" s="7"/>
     </row>
-    <row r="51" spans="1:56" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:56" ht="12.6" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9842,7 +9924,7 @@
       <c r="W51" s="34"/>
       <c r="X51" s="8"/>
       <c r="AB51" s="60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
@@ -10058,7 +10140,7 @@
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
     </row>
-    <row r="56" spans="1:56" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
@@ -10108,7 +10190,7 @@
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
     </row>
-    <row r="67" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
@@ -10119,11 +10201,11 @@
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
     </row>
-    <row r="68" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E68" s="7"/>
       <c r="F68" s="12"/>
       <c r="G68" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
@@ -10131,7 +10213,7 @@
       <c r="K68" s="14"/>
       <c r="U68" s="12"/>
       <c r="V68" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
@@ -10176,7 +10258,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="66"/>
       <c r="G70" s="67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
@@ -10184,7 +10266,7 @@
       <c r="K70" s="68"/>
       <c r="U70" s="66"/>
       <c r="V70" s="67" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="W70" s="67"/>
       <c r="X70" s="67"/>
@@ -10201,7 +10283,7 @@
       <c r="AQ70" s="65"/>
       <c r="AS70" s="7"/>
     </row>
-    <row r="71" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E71" s="7"/>
       <c r="F71" s="69"/>
       <c r="G71" s="70"/>
@@ -10377,7 +10459,7 @@
       <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
     </row>
-    <row r="79" spans="5:45" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:45" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F79" s="38"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
@@ -10405,11 +10487,11 @@
       <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
     </row>
-    <row r="87" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U88" s="12"/>
       <c r="V88" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
@@ -10439,7 +10521,7 @@
     <row r="90" spans="8:42" x14ac:dyDescent="0.15">
       <c r="U90" s="66"/>
       <c r="V90" s="67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="W90" s="67"/>
       <c r="X90" s="67"/>
@@ -10452,7 +10534,7 @@
       <c r="AO90" s="61"/>
       <c r="AP90" s="61"/>
     </row>
-    <row r="91" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U91" s="69"/>
       <c r="V91" s="70"/>
       <c r="W91" s="70"/>
@@ -10655,7 +10737,7 @@
       <c r="AO98" s="61"/>
       <c r="AP98" s="61"/>
     </row>
-    <row r="99" spans="8:42" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:42" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
